--- a/Assets/Editor/Excel/PlayerInfo.xlsx
+++ b/Assets/Editor/Excel/PlayerInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MySoftware\Unity\Data_Binary\Assets\ArtRes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__MyPrograms\__Repos\__MyRepos\Unity RPG Project\Assets\Editor\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{397F1B4D-AF98-4353-A08A-D04E31803EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF1679-9E83-404A-B55E-900B9A1947AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,74 +461,74 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -643,38 +643,38 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
